--- a/frontend/src/assets/data/TypesExample.xlsx
+++ b/frontend/src/assets/data/TypesExample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projeto\surf-management-app\frontend\src\assets\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5552E9E-7475-496B-81CF-F34F93278ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625D94EC-15FB-4F42-88E9-E94945F454EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54BE5C33-6EBF-4CBD-8C24-C0F5AD3C0604}"/>
   </bookViews>
@@ -37,15 +37,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>nome do tipo</t>
-  </si>
-  <si>
-    <t>valor da quota</t>
-  </si>
-  <si>
-    <t>categoria(user/company)</t>
-  </si>
-  <si>
     <t>effective</t>
   </si>
   <si>
@@ -59,6 +50,15 @@
   </si>
   <si>
     <t>founder</t>
+  </si>
+  <si>
+    <t>Nome do tipo</t>
+  </si>
+  <si>
+    <t>Valor da quota</t>
+  </si>
+  <si>
+    <t>Categoria(user/company)</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,46 +460,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>50</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
